--- a/1HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/1HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -475,22 +475,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.070248082268122</v>
+        <v>0.8135728445875386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126913819369816</v>
+        <v>0.2766535956474717</v>
       </c>
       <c r="D2" t="n">
-        <v>1.584396096766023</v>
+        <v>0.6215423362902041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08258035260267124</v>
+        <v>0.1950889015838869</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2793578943817693</v>
+        <v>0.8793380491033453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03514310951398446</v>
+        <v>0.07333887818687539</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>1.978669580350955</v>
+        <v>0.7356705177937519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06390318636824506</v>
+        <v>0.1814161303020978</v>
       </c>
       <c r="D3" t="n">
-        <v>1.507372970079813</v>
+        <v>0.588670362899874</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08954857838979621</v>
+        <v>0.1463389568676104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3324031970694358</v>
+        <v>0.8969947922006014</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1088002351631399</v>
+        <v>0.06170576951009937</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>1.812528914250454</v>
+        <v>0.4922314165171972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0818362330924343</v>
+        <v>0.1326848644175316</v>
       </c>
       <c r="D4" t="n">
-        <v>1.396878449119813</v>
+        <v>0.3843772416012473</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08655669581613962</v>
+        <v>0.1229779374664024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4352024304483087</v>
+        <v>0.9554488630029623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1217933765870068</v>
+        <v>0.02614101588248665</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.870427179000346</v>
+        <v>0.4869355518385149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1846674862076456</v>
+        <v>0.06577877703606937</v>
       </c>
       <c r="D5" t="n">
-        <v>1.403338497454606</v>
+        <v>0.375578496214347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1239079755091911</v>
+        <v>0.04774741302114664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4131844015288179</v>
+        <v>0.96034285251915</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06048569123022964</v>
+        <v>0.00591194650256966</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>1.552837989636288</v>
+        <v>0.6703608711437827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1678818111251862</v>
+        <v>0.2402246961696883</v>
       </c>
       <c r="D6" t="n">
-        <v>1.201740409399315</v>
+        <v>0.5057108684453301</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09658878336531683</v>
+        <v>0.1779788026978493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5889154526457802</v>
+        <v>0.9204412411919816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0867510934349095</v>
+        <v>0.0440285403180963</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>1.819300773537652</v>
+        <v>0.4577743570486241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2062548451120036</v>
+        <v>0.06848481283881871</v>
       </c>
       <c r="D7" t="n">
-        <v>1.391095955144076</v>
+        <v>0.3547319068022429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.17088405321472</v>
+        <v>0.05985026157160896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4297301774898142</v>
+        <v>0.9639676057492415</v>
       </c>
       <c r="G7" t="n">
-        <v>0.140979531891226</v>
+        <v>0.01001649071466396</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>1.700372044485166</v>
+        <v>0.4966707388690909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1647688156171195</v>
+        <v>0.06914363043500225</v>
       </c>
       <c r="D8" t="n">
-        <v>1.310641185619154</v>
+        <v>0.3909399616321109</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142203123906916</v>
+        <v>0.06320994435892867</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5041846964479093</v>
+        <v>0.9580556189416543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1085276316907473</v>
+        <v>0.009394374225592373</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>1.779172734961216</v>
+        <v>0.4760604327335553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2035822813660183</v>
+        <v>0.124449583908274</v>
       </c>
       <c r="D9" t="n">
-        <v>1.348139608469328</v>
+        <v>0.381288222361667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1703791260903135</v>
+        <v>0.1342621043727988</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4495499616493822</v>
+        <v>0.9557646646406038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1537043581114464</v>
+        <v>0.03048629554806562</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>1.813596061244577</v>
+        <v>0.4510856736048033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1359808349772378</v>
+        <v>0.07146917300793562</v>
       </c>
       <c r="D10" t="n">
-        <v>1.372031506230648</v>
+        <v>0.3544739984445052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1166083963846648</v>
+        <v>0.06337319561090064</v>
       </c>
       <c r="F10" t="n">
-        <v>0.433211878518982</v>
+        <v>0.96442768681762</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1317946591360555</v>
+        <v>0.01264243446653514</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>1.367637484642547</v>
+        <v>0.3732983954762899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2118927636935163</v>
+        <v>0.05199870598616974</v>
       </c>
       <c r="D11" t="n">
-        <v>1.05821525832426</v>
+        <v>0.2853477420517073</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1526988410949258</v>
+        <v>0.05243249017154009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6782517540381545</v>
+        <v>0.9754902975685276</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09532237251503285</v>
+        <v>0.008029618981416688</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>1.591513606820949</v>
+        <v>0.3721142839198682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3200068576082854</v>
+        <v>0.06364413744826175</v>
       </c>
       <c r="D12" t="n">
-        <v>1.179981269821261</v>
+        <v>0.293518222155588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2224184283906372</v>
+        <v>0.05993947042863103</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5717249634349345</v>
+        <v>0.9764227499902448</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1287059366195743</v>
+        <v>0.006709994297238677</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>65</v>
       </c>
       <c r="B13" t="n">
-        <v>1.292493119858043</v>
+        <v>0.3984602739484501</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2168885150072995</v>
+        <v>0.08998077157150813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9993161445646159</v>
+        <v>0.3154514881215039</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1666227245947287</v>
+        <v>0.08900065262898309</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6955755784751685</v>
+        <v>0.9727506339589684</v>
       </c>
       <c r="G13" t="n">
-        <v>0.142516444127461</v>
+        <v>0.009635072113575689</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>1.534555743679654</v>
+        <v>0.3297074354339847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1926097531089103</v>
+        <v>0.02588083750770543</v>
       </c>
       <c r="D14" t="n">
-        <v>1.17594955844762</v>
+        <v>0.240529735984644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1386724852266036</v>
+        <v>0.02366047664500219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6024057395926036</v>
+        <v>0.9817732354764104</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07073621295450895</v>
+        <v>0.000790964204035313</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>75</v>
       </c>
       <c r="B15" t="n">
-        <v>1.355972656010815</v>
+        <v>0.3934344165215841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2524508755422591</v>
+        <v>0.116599011958783</v>
       </c>
       <c r="D15" t="n">
-        <v>1.035380160043322</v>
+        <v>0.3031122563945207</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1792577289034561</v>
+        <v>0.09591292104783254</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6791621673416273</v>
+        <v>0.9725557078496078</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1333210309201753</v>
+        <v>0.01578458463512044</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>1.436245215228882</v>
+        <v>0.3655185015186594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3107864895814653</v>
+        <v>0.0784506433570285</v>
       </c>
       <c r="D16" t="n">
-        <v>1.112543482045927</v>
+        <v>0.2799898651479215</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2524458069204035</v>
+        <v>0.06498902706031913</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6144821222258872</v>
+        <v>0.9765861481237856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1999965822890855</v>
+        <v>0.008781681184805663</v>
       </c>
     </row>
   </sheetData>

--- a/1HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/1HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Neurons</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Neurons_1HL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Mean RMSE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Std RMSE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mean MAE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std MAE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mean R-squared</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Std R-squared</t>
         </is>
@@ -472,347 +477,340 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8135728445875386</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2766535956474717</v>
+        <v>0.4324858674269663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6215423362902041</v>
+        <v>0.07629183092391133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1950889015838869</v>
+        <v>0.330512519233024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8793380491033453</v>
+        <v>0.0681760790871408</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07333887818687539</v>
+        <v>0.9675384392829901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01080334817890185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7356705177937519</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1814161303020978</v>
+        <v>0.3876221223293798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.588670362899874</v>
+        <v>0.0774646592115994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1463389568676104</v>
+        <v>0.2998694786857921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8969947922006014</v>
+        <v>0.06432173051678353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06170576951009937</v>
+        <v>0.9723687857794665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01577322636942285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4922314165171972</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1326848644175316</v>
+        <v>0.3928470836620127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3843772416012473</v>
+        <v>0.05740803419596355</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1229779374664024</v>
+        <v>0.3140599437245279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9554488630029623</v>
+        <v>0.06346116713980463</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02614101588248665</v>
+        <v>0.974090729432713</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.004793048457101777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4869355518385149</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06577877703606937</v>
+        <v>0.3629886676417161</v>
       </c>
       <c r="D5" t="n">
-        <v>0.375578496214347</v>
+        <v>0.05029248853439522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04774741302114664</v>
+        <v>0.2866918246935421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.96034285251915</v>
+        <v>0.05052648201724976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00591194650256966</v>
+        <v>0.9778600651284854</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004024828405918337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6703608711437827</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2402246961696883</v>
+        <v>0.3574237791977425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5057108684453301</v>
+        <v>0.08027122109279684</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1779788026978493</v>
+        <v>0.2806449913604786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9204412411919816</v>
+        <v>0.09004116812099719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0440285403180963</v>
+        <v>0.9781670187130624</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008163911187915316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4577743570486241</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06848481283881871</v>
+        <v>0.3602338158748041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3547319068022429</v>
+        <v>0.1054367031601335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05985026157160896</v>
+        <v>0.2851891165300869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9639676057492415</v>
+        <v>0.09816120384100932</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01001649071466396</v>
+        <v>0.9761498711764702</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01380706951532967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4966707388690909</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06914363043500225</v>
+        <v>0.3493226246633843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3909399616321109</v>
+        <v>0.0517981103664728</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06320994435892867</v>
+        <v>0.2647349227408401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9580556189416543</v>
+        <v>0.04879756982015411</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009394374225592373</v>
+        <v>0.979465741423035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.004242643302952404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4760604327335553</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>0.124449583908274</v>
+        <v>0.3176823147431505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.381288222361667</v>
+        <v>0.07690015766668749</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1342621043727988</v>
+        <v>0.2374509014778102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9557646646406038</v>
+        <v>0.06529940474734813</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03048629554806562</v>
+        <v>0.9821292469074748</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.008257014003809763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4510856736048033</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07146917300793562</v>
+        <v>0.2863670727172432</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3544739984445052</v>
+        <v>0.04620379479675743</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06337319561090064</v>
+        <v>0.2037535667116586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.96442768681762</v>
+        <v>0.03717997732614899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01264243446653514</v>
+        <v>0.9860685552588697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.003686938302353863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3732983954762899</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05199870598616974</v>
+        <v>0.315910491920973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2853477420517073</v>
+        <v>0.01653716883556269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05243249017154009</v>
+        <v>0.2367267753361678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9754902975685276</v>
+        <v>0.0247285137028804</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008029618981416688</v>
+        <v>0.9831028879224342</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002027017195974683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3721142839198682</v>
+        <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06364413744826175</v>
+        <v>0.2928656081395056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.293518222155588</v>
+        <v>0.03979915299744292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05993947042863103</v>
+        <v>0.2128925173756044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9764227499902448</v>
+        <v>0.03431663309958786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006709994297238677</v>
+        <v>0.9856505518909028</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.002190830471995321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3984602739484501</v>
+        <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08998077157150813</v>
+        <v>0.3452230056392239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3154514881215039</v>
+        <v>0.04450583560782965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08900065262898309</v>
+        <v>0.2708109080939533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9727506339589684</v>
+        <v>0.04835697164411451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009635072113575689</v>
+        <v>0.9796512005478284</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.004728082087768833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3297074354339847</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02588083750770543</v>
+        <v>0.3476740523566432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240529735984644</v>
+        <v>0.0581239494002847</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02366047664500219</v>
+        <v>0.2716117263749004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9817732354764104</v>
+        <v>0.06048012758268109</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000790964204035313</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>75</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.3934344165215841</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.116599011958783</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3031122563945207</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.09591292104783254</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9725557078496078</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01578458463512044</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>80</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3655185015186594</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0784506433570285</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.2799898651479215</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.06498902706031913</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9765861481237856</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.008781681184805663</v>
+        <v>0.9796867769646805</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.004564884278227339</v>
       </c>
     </row>
   </sheetData>

--- a/1HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/1HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,25 +480,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4324858674269663</v>
+        <v>0.6618272187675466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07629183092391133</v>
+        <v>0.3641635468323121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.330512519233024</v>
+        <v>0.4813031173118605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0681760790871408</v>
+        <v>0.239954394135874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9675384392829901</v>
+        <v>0.9078338002626584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01080334817890185</v>
+        <v>0.09326504478708257</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3876221223293798</v>
+        <v>0.5112890578911266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0774646592115994</v>
+        <v>0.09358931290137688</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2998694786857921</v>
+        <v>0.4048297089706565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06432173051678353</v>
+        <v>0.09074757766360005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9723687857794665</v>
+        <v>0.9536879784528425</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01577322636942285</v>
+        <v>0.01768698630023552</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3928470836620127</v>
+        <v>0.424400045473403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05740803419596355</v>
+        <v>0.1255394315303329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3140599437245279</v>
+        <v>0.3326941060552582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06346116713980463</v>
+        <v>0.1021508665868622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.974090729432713</v>
+        <v>0.9684780087740243</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004793048457101777</v>
+        <v>0.01684804897358997</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3629886676417161</v>
+        <v>0.4371424218665583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05029248853439522</v>
+        <v>0.1062878000063358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2866918246935421</v>
+        <v>0.3358656171304498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05052648201724976</v>
+        <v>0.09443061091078769</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9778600651284854</v>
+        <v>0.9666919057518536</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004024828405918337</v>
+        <v>0.01395582254055588</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3574237791977425</v>
+        <v>0.3787644805279011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08027122109279684</v>
+        <v>0.0286785287795772</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2806449913604786</v>
+        <v>0.28216273524804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09004116812099719</v>
+        <v>0.02129010929213414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9781670187130624</v>
+        <v>0.9758011343688257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008163911187915316</v>
+        <v>0.002708781362227458</v>
       </c>
     </row>
     <row r="7">
@@ -610,25 +610,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3602338158748041</v>
+        <v>0.3373923855772977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1054367031601335</v>
+        <v>0.04406243725775533</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2851891165300869</v>
+        <v>0.2588287352655049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09816120384100932</v>
+        <v>0.03358811102219264</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9761498711764702</v>
+        <v>0.9807553026831796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01380706951532967</v>
+        <v>0.003821706584225911</v>
       </c>
     </row>
     <row r="8">
@@ -636,25 +636,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3493226246633843</v>
+        <v>0.3375669387147956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0517981103664728</v>
+        <v>0.08214018056792761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2647349227408401</v>
+        <v>0.2470014417880191</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04879756982015411</v>
+        <v>0.06518019891317096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.979465741423035</v>
+        <v>0.9801959162642154</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004242643302952404</v>
+        <v>0.008812402414382652</v>
       </c>
     </row>
     <row r="9">
@@ -662,25 +662,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3176823147431505</v>
+        <v>0.3207215039695797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07690015766668749</v>
+        <v>0.04042960439775162</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2374509014778102</v>
+        <v>0.2450525466384234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06529940474734813</v>
+        <v>0.03997177531873828</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9821292469074748</v>
+        <v>0.9825259119071068</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008257014003809763</v>
+        <v>0.003661543149668219</v>
       </c>
     </row>
     <row r="10">
@@ -688,25 +688,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2863670727172432</v>
+        <v>0.3251599693310836</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04620379479675743</v>
+        <v>0.0408717986277017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2037535667116586</v>
+        <v>0.2419807496166974</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03717997732614899</v>
+        <v>0.03900019332809552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9860685552588697</v>
+        <v>0.9816114960624658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003686938302353863</v>
+        <v>0.005848528188764275</v>
       </c>
     </row>
     <row r="11">
@@ -714,25 +714,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>0.315910491920973</v>
+        <v>0.3172435964283337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01653716883556269</v>
+        <v>0.03089753811463983</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2367267753361678</v>
+        <v>0.2315007084793028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0247285137028804</v>
+        <v>0.04047997914976755</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9831028879224342</v>
+        <v>0.9825445638768491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002027017195974683</v>
+        <v>0.004918553135251631</v>
       </c>
     </row>
     <row r="12">
@@ -740,25 +740,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2928656081395056</v>
+        <v>0.2872451985245979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03979915299744292</v>
+        <v>0.02138978630371023</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2128925173756044</v>
+        <v>0.2074145990742657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03431663309958786</v>
+        <v>0.01833305731920513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9856505518909028</v>
+        <v>0.9858300145833514</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002190830471995321</v>
+        <v>0.003080830174045941</v>
       </c>
     </row>
     <row r="13">
@@ -766,25 +766,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3452230056392239</v>
+        <v>0.3504299789336331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04450583560782965</v>
+        <v>0.1030115771982234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2708109080939533</v>
+        <v>0.280647390765543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04835697164411451</v>
+        <v>0.1000989025939946</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9796512005478284</v>
+        <v>0.9775665374925906</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004728082087768833</v>
+        <v>0.01313497067979206</v>
       </c>
     </row>
     <row r="14">
@@ -792,25 +792,77 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2960923846171982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04540970200446132</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2270144529779021</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04787636704730128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9845960950658521</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00598976151384318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2788393131989703</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04312888200335567</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2081887256368622</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04628565506389331</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9869166073581518</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.002877036253902846</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
         <v>80</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.3476740523566432</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0581239494002847</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2716117263749004</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.06048012758268109</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9796867769646805</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.004564884278227339</v>
+      <c r="C16" t="n">
+        <v>0.2711547778025559</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02301491637144593</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1930679837029693</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02436192088231481</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9874023204743821</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.002672307395991298</v>
       </c>
     </row>
   </sheetData>
